--- a/Phenoloxidase Activity data/44. AEG 44 (91176).xlsx
+++ b/Phenoloxidase Activity data/44. AEG 44 (91176).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,7 +209,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -414,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249719488"/>
-        <c:axId val="249736160"/>
+        <c:axId val="246805680"/>
+        <c:axId val="246848664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249719488"/>
+        <c:axId val="246805680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,12 +474,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249736160"/>
+        <c:crossAx val="246848664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249736160"/>
+        <c:axId val="246848664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249719488"/>
+        <c:crossAx val="246805680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -601,7 +600,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -806,11 +804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147602088"/>
-        <c:axId val="249420136"/>
+        <c:axId val="245792736"/>
+        <c:axId val="247141544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147602088"/>
+        <c:axId val="245792736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,12 +865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249420136"/>
+        <c:crossAx val="247141544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249420136"/>
+        <c:axId val="247141544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147602088"/>
+        <c:crossAx val="245792736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -993,7 +991,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1198,11 +1195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249475200"/>
-        <c:axId val="249485056"/>
+        <c:axId val="246526256"/>
+        <c:axId val="246509136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249475200"/>
+        <c:axId val="246526256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,12 +1256,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249485056"/>
+        <c:crossAx val="246509136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249485056"/>
+        <c:axId val="246509136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249475200"/>
+        <c:crossAx val="246526256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1385,7 +1382,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1590,11 +1586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249656912"/>
-        <c:axId val="249657296"/>
+        <c:axId val="245993736"/>
+        <c:axId val="245994120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249656912"/>
+        <c:axId val="245993736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,12 +1647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249657296"/>
+        <c:crossAx val="245994120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249657296"/>
+        <c:axId val="245994120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249656912"/>
+        <c:crossAx val="245993736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1777,7 +1773,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1982,11 +1977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249531640"/>
-        <c:axId val="249532024"/>
+        <c:axId val="286988720"/>
+        <c:axId val="246034528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249531640"/>
+        <c:axId val="286988720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2038,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249532024"/>
+        <c:crossAx val="246034528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249532024"/>
+        <c:axId val="246034528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249531640"/>
+        <c:crossAx val="286988720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2169,7 +2164,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2374,11 +2368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301971056"/>
-        <c:axId val="249558496"/>
+        <c:axId val="245959832"/>
+        <c:axId val="245960224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301971056"/>
+        <c:axId val="245959832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,12 +2429,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249558496"/>
+        <c:crossAx val="245960224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249558496"/>
+        <c:axId val="245960224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301971056"/>
+        <c:crossAx val="245959832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2561,7 +2555,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2766,11 +2759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249555752"/>
-        <c:axId val="249556536"/>
+        <c:axId val="245958264"/>
+        <c:axId val="246141240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249555752"/>
+        <c:axId val="245958264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,12 +2820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249556536"/>
+        <c:crossAx val="246141240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249556536"/>
+        <c:axId val="246141240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249555752"/>
+        <c:crossAx val="245958264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2953,7 +2946,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3158,11 +3150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249556144"/>
-        <c:axId val="249556928"/>
+        <c:axId val="246138104"/>
+        <c:axId val="246140456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249556144"/>
+        <c:axId val="246138104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,12 +3211,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249556928"/>
+        <c:crossAx val="246140456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249556928"/>
+        <c:axId val="246140456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249556144"/>
+        <c:crossAx val="246138104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3345,7 +3337,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3550,11 +3541,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249557712"/>
-        <c:axId val="249555360"/>
+        <c:axId val="246136928"/>
+        <c:axId val="246140848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249557712"/>
+        <c:axId val="246136928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,12 +3602,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249555360"/>
+        <c:crossAx val="246140848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249555360"/>
+        <c:axId val="246140848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3673,7 +3664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249557712"/>
+        <c:crossAx val="246136928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11020,7 +11011,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11274,9 +11265,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <v>24.915553062974222</v>
-      </c>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
